--- a/CITCEA/Calculadora simple/Calculadora simple/CSV/Results/Economic.xlsx
+++ b/CITCEA/Calculadora simple/Calculadora simple/CSV/Results/Economic.xlsx
@@ -484,13 +484,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>387569.6</v>
+        <v>452529.18</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>16582.47</v>
+        <v>17719.26</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -502,7 +502,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>719218.96</v>
+        <v>806914.39</v>
       </c>
     </row>
     <row r="3">
@@ -512,13 +512,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>349180</v>
+        <v>311220</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>13430</v>
+        <v>11970</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -527,10 +527,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>349180</v>
+        <v>311220</v>
       </c>
       <c r="H3" t="n">
-        <v>966960</v>
+        <v>861840</v>
       </c>
     </row>
     <row r="4">
@@ -540,13 +540,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>736749.6</v>
+        <v>763749.1800000001</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>30012.47</v>
+        <v>29689.26</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -555,10 +555,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>349180</v>
+        <v>311220</v>
       </c>
       <c r="H4" t="n">
-        <v>1686178.96</v>
+        <v>1668754.39</v>
       </c>
     </row>
   </sheetData>
@@ -587,13 +587,13 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>273135.49</v>
+        <v>278818.86</v>
       </c>
       <c r="C1" t="n">
         <v>0</v>
       </c>
       <c r="D1" t="n">
-        <v>12938.92</v>
+        <v>13309.33</v>
       </c>
       <c r="E1" t="n">
         <v>0</v>
@@ -678,7 +678,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B262"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -698,6 +698,2086 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
         <v>0</v>
       </c>
     </row>
@@ -727,7 +2807,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>1085929.6</v>
+        <v>1074969.18</v>
       </c>
       <c r="C1" t="inlineStr">
         <is>
@@ -742,7 +2822,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>175521396.93</v>
+        <v>175527104.1</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -867,7 +2947,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>387569.6</v>
+        <v>452529.18</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -937,7 +3017,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>349180</v>
+        <v>311220</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1262,7 +3342,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>349180</v>
+        <v>311220</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1290,64 +3370,64 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>16582.47</v>
+        <v>17719.26</v>
       </c>
       <c r="D8" t="n">
-        <v>16582.47</v>
+        <v>17719.26</v>
       </c>
       <c r="E8" t="n">
-        <v>16582.47</v>
+        <v>17719.26</v>
       </c>
       <c r="F8" t="n">
-        <v>16582.47</v>
+        <v>17719.26</v>
       </c>
       <c r="G8" t="n">
-        <v>16582.47</v>
+        <v>17719.26</v>
       </c>
       <c r="H8" t="n">
-        <v>16582.47</v>
+        <v>17719.26</v>
       </c>
       <c r="I8" t="n">
-        <v>16582.47</v>
+        <v>17719.26</v>
       </c>
       <c r="J8" t="n">
-        <v>16582.47</v>
+        <v>17719.26</v>
       </c>
       <c r="K8" t="n">
-        <v>16582.47</v>
+        <v>17719.26</v>
       </c>
       <c r="L8" t="n">
-        <v>16582.47</v>
+        <v>17719.26</v>
       </c>
       <c r="M8" t="n">
-        <v>16582.47</v>
+        <v>17719.26</v>
       </c>
       <c r="N8" t="n">
-        <v>16582.47</v>
+        <v>17719.26</v>
       </c>
       <c r="O8" t="n">
-        <v>16582.47</v>
+        <v>17719.26</v>
       </c>
       <c r="P8" t="n">
-        <v>16582.47</v>
+        <v>17719.26</v>
       </c>
       <c r="Q8" t="n">
-        <v>16582.47</v>
+        <v>17719.26</v>
       </c>
       <c r="R8" t="n">
-        <v>16582.47</v>
+        <v>17719.26</v>
       </c>
       <c r="S8" t="n">
-        <v>16582.47</v>
+        <v>17719.26</v>
       </c>
       <c r="T8" t="n">
-        <v>16582.47</v>
+        <v>17719.26</v>
       </c>
       <c r="U8" t="n">
-        <v>16582.47</v>
+        <v>17719.26</v>
       </c>
       <c r="V8" t="n">
-        <v>16582.47</v>
+        <v>17719.26</v>
       </c>
     </row>
     <row r="9">
@@ -1360,64 +3440,64 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>13430</v>
+        <v>11970</v>
       </c>
       <c r="D9" t="n">
-        <v>13430</v>
+        <v>11970</v>
       </c>
       <c r="E9" t="n">
-        <v>13430</v>
+        <v>11970</v>
       </c>
       <c r="F9" t="n">
-        <v>13430</v>
+        <v>11970</v>
       </c>
       <c r="G9" t="n">
-        <v>13430</v>
+        <v>11970</v>
       </c>
       <c r="H9" t="n">
-        <v>13430</v>
+        <v>11970</v>
       </c>
       <c r="I9" t="n">
-        <v>13430</v>
+        <v>11970</v>
       </c>
       <c r="J9" t="n">
-        <v>13430</v>
+        <v>11970</v>
       </c>
       <c r="K9" t="n">
-        <v>13430</v>
+        <v>11970</v>
       </c>
       <c r="L9" t="n">
-        <v>13430</v>
+        <v>11970</v>
       </c>
       <c r="M9" t="n">
-        <v>13430</v>
+        <v>11970</v>
       </c>
       <c r="N9" t="n">
-        <v>13430</v>
+        <v>11970</v>
       </c>
       <c r="O9" t="n">
-        <v>13430</v>
+        <v>11970</v>
       </c>
       <c r="P9" t="n">
-        <v>13430</v>
+        <v>11970</v>
       </c>
       <c r="Q9" t="n">
-        <v>13430</v>
+        <v>11970</v>
       </c>
       <c r="R9" t="n">
-        <v>13430</v>
+        <v>11970</v>
       </c>
       <c r="S9" t="n">
-        <v>13430</v>
+        <v>11970</v>
       </c>
       <c r="T9" t="n">
-        <v>13430</v>
+        <v>11970</v>
       </c>
       <c r="U9" t="n">
-        <v>13430</v>
+        <v>11970</v>
       </c>
       <c r="V9" t="n">
-        <v>13430</v>
+        <v>11970</v>
       </c>
     </row>
     <row r="10">
@@ -1430,64 +3510,64 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>215.3</v>
+        <v>191.9</v>
       </c>
       <c r="D10" t="n">
-        <v>215.3</v>
+        <v>191.9</v>
       </c>
       <c r="E10" t="n">
-        <v>215.3</v>
+        <v>191.9</v>
       </c>
       <c r="F10" t="n">
-        <v>215.3</v>
+        <v>191.9</v>
       </c>
       <c r="G10" t="n">
-        <v>215.3</v>
+        <v>191.9</v>
       </c>
       <c r="H10" t="n">
-        <v>215.3</v>
+        <v>191.9</v>
       </c>
       <c r="I10" t="n">
-        <v>215.3</v>
+        <v>191.9</v>
       </c>
       <c r="J10" t="n">
-        <v>215.3</v>
+        <v>191.9</v>
       </c>
       <c r="K10" t="n">
-        <v>215.3</v>
+        <v>191.9</v>
       </c>
       <c r="L10" t="n">
-        <v>215.3</v>
+        <v>191.9</v>
       </c>
       <c r="M10" t="n">
-        <v>215.3</v>
+        <v>191.9</v>
       </c>
       <c r="N10" t="n">
-        <v>215.3</v>
+        <v>191.9</v>
       </c>
       <c r="O10" t="n">
-        <v>215.3</v>
+        <v>191.9</v>
       </c>
       <c r="P10" t="n">
-        <v>215.3</v>
+        <v>191.9</v>
       </c>
       <c r="Q10" t="n">
-        <v>215.3</v>
+        <v>191.9</v>
       </c>
       <c r="R10" t="n">
-        <v>215.3</v>
+        <v>191.9</v>
       </c>
       <c r="S10" t="n">
-        <v>215.3</v>
+        <v>191.9</v>
       </c>
       <c r="T10" t="n">
-        <v>215.3</v>
+        <v>191.9</v>
       </c>
       <c r="U10" t="n">
-        <v>215.3</v>
+        <v>191.9</v>
       </c>
       <c r="V10" t="n">
-        <v>215.3</v>
+        <v>191.9</v>
       </c>
     </row>
     <row r="11">
@@ -1500,64 +3580,64 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>277953.7</v>
+        <v>283637.07</v>
       </c>
       <c r="D11" t="n">
-        <v>277953.7</v>
+        <v>283637.07</v>
       </c>
       <c r="E11" t="n">
-        <v>277953.7</v>
+        <v>283637.07</v>
       </c>
       <c r="F11" t="n">
-        <v>277953.7</v>
+        <v>283637.07</v>
       </c>
       <c r="G11" t="n">
-        <v>277953.7</v>
+        <v>283637.07</v>
       </c>
       <c r="H11" t="n">
-        <v>277953.7</v>
+        <v>283637.07</v>
       </c>
       <c r="I11" t="n">
-        <v>277953.7</v>
+        <v>283637.07</v>
       </c>
       <c r="J11" t="n">
-        <v>277953.7</v>
+        <v>283637.07</v>
       </c>
       <c r="K11" t="n">
-        <v>277953.7</v>
+        <v>283637.07</v>
       </c>
       <c r="L11" t="n">
-        <v>277953.7</v>
+        <v>283637.07</v>
       </c>
       <c r="M11" t="n">
-        <v>277953.7</v>
+        <v>283637.07</v>
       </c>
       <c r="N11" t="n">
-        <v>277953.7</v>
+        <v>283637.07</v>
       </c>
       <c r="O11" t="n">
-        <v>277953.7</v>
+        <v>283637.07</v>
       </c>
       <c r="P11" t="n">
-        <v>277953.7</v>
+        <v>283637.07</v>
       </c>
       <c r="Q11" t="n">
-        <v>277953.7</v>
+        <v>283637.07</v>
       </c>
       <c r="R11" t="n">
-        <v>277953.7</v>
+        <v>283637.07</v>
       </c>
       <c r="S11" t="n">
-        <v>277953.7</v>
+        <v>283637.07</v>
       </c>
       <c r="T11" t="n">
-        <v>277953.7</v>
+        <v>283637.07</v>
       </c>
       <c r="U11" t="n">
-        <v>277953.7</v>
+        <v>283637.07</v>
       </c>
       <c r="V11" t="n">
-        <v>277953.7</v>
+        <v>283637.07</v>
       </c>
     </row>
     <row r="12">
@@ -1640,64 +3720,64 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>13215.46</v>
+        <v>13585.87</v>
       </c>
       <c r="D13" t="n">
-        <v>13215.46</v>
+        <v>13585.87</v>
       </c>
       <c r="E13" t="n">
-        <v>13215.46</v>
+        <v>13585.87</v>
       </c>
       <c r="F13" t="n">
-        <v>13215.46</v>
+        <v>13585.87</v>
       </c>
       <c r="G13" t="n">
-        <v>13215.46</v>
+        <v>13585.87</v>
       </c>
       <c r="H13" t="n">
-        <v>13215.46</v>
+        <v>13585.87</v>
       </c>
       <c r="I13" t="n">
-        <v>13215.46</v>
+        <v>13585.87</v>
       </c>
       <c r="J13" t="n">
-        <v>13215.46</v>
+        <v>13585.87</v>
       </c>
       <c r="K13" t="n">
-        <v>13215.46</v>
+        <v>13585.87</v>
       </c>
       <c r="L13" t="n">
-        <v>13215.46</v>
+        <v>13585.87</v>
       </c>
       <c r="M13" t="n">
-        <v>13215.46</v>
+        <v>13585.87</v>
       </c>
       <c r="N13" t="n">
-        <v>13215.46</v>
+        <v>13585.87</v>
       </c>
       <c r="O13" t="n">
-        <v>13215.46</v>
+        <v>13585.87</v>
       </c>
       <c r="P13" t="n">
-        <v>13215.46</v>
+        <v>13585.87</v>
       </c>
       <c r="Q13" t="n">
-        <v>13215.46</v>
+        <v>13585.87</v>
       </c>
       <c r="R13" t="n">
-        <v>13215.46</v>
+        <v>13585.87</v>
       </c>
       <c r="S13" t="n">
-        <v>13215.46</v>
+        <v>13585.87</v>
       </c>
       <c r="T13" t="n">
-        <v>13215.46</v>
+        <v>13585.87</v>
       </c>
       <c r="U13" t="n">
-        <v>13215.46</v>
+        <v>13585.87</v>
       </c>
       <c r="V13" t="n">
-        <v>13215.46</v>
+        <v>13585.87</v>
       </c>
     </row>
     <row r="14">
@@ -1987,67 +4067,67 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>736749.6</v>
+        <v>763749.1800000001</v>
       </c>
       <c r="C18" t="n">
-        <v>175521396.93</v>
+        <v>175527104.1</v>
       </c>
       <c r="D18" t="n">
-        <v>175521396.93</v>
+        <v>175527104.1</v>
       </c>
       <c r="E18" t="n">
-        <v>175521396.93</v>
+        <v>175527104.1</v>
       </c>
       <c r="F18" t="n">
-        <v>175521396.93</v>
+        <v>175527104.1</v>
       </c>
       <c r="G18" t="n">
-        <v>175521396.93</v>
+        <v>175527104.1</v>
       </c>
       <c r="H18" t="n">
-        <v>175521396.93</v>
+        <v>175527104.1</v>
       </c>
       <c r="I18" t="n">
-        <v>175521396.93</v>
+        <v>175527104.1</v>
       </c>
       <c r="J18" t="n">
-        <v>175521396.93</v>
+        <v>175527104.1</v>
       </c>
       <c r="K18" t="n">
-        <v>175521396.93</v>
+        <v>175527104.1</v>
       </c>
       <c r="L18" t="n">
-        <v>175521396.93</v>
+        <v>175527104.1</v>
       </c>
       <c r="M18" t="n">
-        <v>175521396.93</v>
+        <v>175527104.1</v>
       </c>
       <c r="N18" t="n">
-        <v>175521396.93</v>
+        <v>175527104.1</v>
       </c>
       <c r="O18" t="n">
-        <v>175521396.93</v>
+        <v>175527104.1</v>
       </c>
       <c r="P18" t="n">
-        <v>175521396.93</v>
+        <v>175527104.1</v>
       </c>
       <c r="Q18" t="n">
-        <v>175870576.93</v>
+        <v>175838324.1</v>
       </c>
       <c r="R18" t="n">
-        <v>175521396.93</v>
+        <v>175527104.1</v>
       </c>
       <c r="S18" t="n">
-        <v>175521396.93</v>
+        <v>175527104.1</v>
       </c>
       <c r="T18" t="n">
-        <v>175521396.93</v>
+        <v>175527104.1</v>
       </c>
       <c r="U18" t="n">
-        <v>175521396.93</v>
+        <v>175527104.1</v>
       </c>
       <c r="V18" t="n">
-        <v>175521396.93</v>
+        <v>175527104.1</v>
       </c>
     </row>
     <row r="19">
@@ -2057,67 +4137,67 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>736749.6</v>
+        <v>763749.1800000001</v>
       </c>
       <c r="C19" t="n">
-        <v>162519811.97</v>
+        <v>162525096.39</v>
       </c>
       <c r="D19" t="n">
-        <v>150481307.38</v>
+        <v>150486200.36</v>
       </c>
       <c r="E19" t="n">
-        <v>139334543.87</v>
+        <v>139339074.41</v>
       </c>
       <c r="F19" t="n">
-        <v>129013466.55</v>
+        <v>129017661.49</v>
       </c>
       <c r="G19" t="n">
-        <v>119456913.47</v>
+        <v>119460797.68</v>
       </c>
       <c r="H19" t="n">
-        <v>110608253.21</v>
+        <v>110611849.7</v>
       </c>
       <c r="I19" t="n">
-        <v>102415049.27</v>
+        <v>102418379.35</v>
       </c>
       <c r="J19" t="n">
-        <v>94828749.33</v>
+        <v>94831832.73</v>
       </c>
       <c r="K19" t="n">
-        <v>87804397.52</v>
+        <v>87807252.53</v>
       </c>
       <c r="L19" t="n">
-        <v>81300368.08</v>
+        <v>81303011.59999999</v>
       </c>
       <c r="M19" t="n">
-        <v>75278118.59</v>
+        <v>75280566.3</v>
       </c>
       <c r="N19" t="n">
-        <v>69701961.66</v>
+        <v>69704228.05</v>
       </c>
       <c r="O19" t="n">
-        <v>64538853.39</v>
+        <v>64540951.9</v>
       </c>
       <c r="P19" t="n">
-        <v>59758197.58</v>
+        <v>59760140.65</v>
       </c>
       <c r="Q19" t="n">
-        <v>55441740.53</v>
+        <v>55431573.09</v>
       </c>
       <c r="R19" t="n">
-        <v>51233022.62</v>
+        <v>51234688.49</v>
       </c>
       <c r="S19" t="n">
-        <v>47437983.9</v>
+        <v>47439526.38</v>
       </c>
       <c r="T19" t="n">
-        <v>43924059.17</v>
+        <v>43925487.39</v>
       </c>
       <c r="U19" t="n">
-        <v>40670425.16</v>
+        <v>40671747.58</v>
       </c>
       <c r="V19" t="n">
-        <v>37657801.07</v>
+        <v>37659025.54</v>
       </c>
     </row>
     <row r="20">
@@ -2127,67 +4207,67 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>736749.6</v>
+        <v>763749.1800000001</v>
       </c>
       <c r="C20" t="n">
-        <v>176258146.53</v>
+        <v>176290853.28</v>
       </c>
       <c r="D20" t="n">
-        <v>351779543.46</v>
+        <v>351817957.39</v>
       </c>
       <c r="E20" t="n">
-        <v>527300940.39</v>
+        <v>527345061.49</v>
       </c>
       <c r="F20" t="n">
-        <v>702822337.33</v>
+        <v>702872165.59</v>
       </c>
       <c r="G20" t="n">
-        <v>878343734.26</v>
+        <v>878399269.7</v>
       </c>
       <c r="H20" t="n">
-        <v>1053865131.19</v>
+        <v>1053926373.8</v>
       </c>
       <c r="I20" t="n">
-        <v>1229386528.12</v>
+        <v>1229453477.9</v>
       </c>
       <c r="J20" t="n">
-        <v>1404907925.05</v>
+        <v>1404980582.01</v>
       </c>
       <c r="K20" t="n">
-        <v>1580429321.98</v>
+        <v>1580507686.11</v>
       </c>
       <c r="L20" t="n">
-        <v>1755950718.91</v>
+        <v>1756034790.21</v>
       </c>
       <c r="M20" t="n">
-        <v>1931472115.84</v>
+        <v>1931561894.32</v>
       </c>
       <c r="N20" t="n">
-        <v>2106993512.78</v>
+        <v>2107088998.42</v>
       </c>
       <c r="O20" t="n">
-        <v>2282514909.71</v>
+        <v>2282616102.52</v>
       </c>
       <c r="P20" t="n">
-        <v>2458036306.64</v>
+        <v>2458143206.63</v>
       </c>
       <c r="Q20" t="n">
-        <v>2633906883.57</v>
+        <v>2633981530.73</v>
       </c>
       <c r="R20" t="n">
-        <v>2809428280.5</v>
+        <v>2809508634.83</v>
       </c>
       <c r="S20" t="n">
-        <v>2984949677.43</v>
+        <v>2985035738.94</v>
       </c>
       <c r="T20" t="n">
-        <v>3160471074.36</v>
+        <v>3160562843.04</v>
       </c>
       <c r="U20" t="n">
-        <v>3335992471.3</v>
+        <v>3336089947.14</v>
       </c>
       <c r="V20" t="n">
-        <v>3511513868.23</v>
+        <v>3511617051.25</v>
       </c>
     </row>
     <row r="21">
@@ -2197,67 +4277,67 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>736749.6</v>
+        <v>763749.1800000001</v>
       </c>
       <c r="C21" t="n">
-        <v>163256561.57</v>
+        <v>163288845.57</v>
       </c>
       <c r="D21" t="n">
-        <v>313737868.96</v>
+        <v>313775045.94</v>
       </c>
       <c r="E21" t="n">
-        <v>453072412.83</v>
+        <v>453114120.35</v>
       </c>
       <c r="F21" t="n">
-        <v>582085879.38</v>
+        <v>582131781.84</v>
       </c>
       <c r="G21" t="n">
-        <v>701542792.85</v>
+        <v>701592579.51</v>
       </c>
       <c r="H21" t="n">
-        <v>812151046.0599999</v>
+        <v>812204429.21</v>
       </c>
       <c r="I21" t="n">
-        <v>914566095.34</v>
+        <v>914622808.5700001</v>
       </c>
       <c r="J21" t="n">
-        <v>1009394844.66</v>
+        <v>1009454641.3</v>
       </c>
       <c r="K21" t="n">
-        <v>1097199242.19</v>
+        <v>1097261893.83</v>
       </c>
       <c r="L21" t="n">
-        <v>1178499610.27</v>
+        <v>1178564905.43</v>
       </c>
       <c r="M21" t="n">
-        <v>1253777728.86</v>
+        <v>1253845471.73</v>
       </c>
       <c r="N21" t="n">
-        <v>1323479690.51</v>
+        <v>1323549699.79</v>
       </c>
       <c r="O21" t="n">
-        <v>1388018543.9</v>
+        <v>1388090651.69</v>
       </c>
       <c r="P21" t="n">
-        <v>1447776741.48</v>
+        <v>1447850792.34</v>
       </c>
       <c r="Q21" t="n">
-        <v>1503218482.01</v>
+        <v>1503282365.43</v>
       </c>
       <c r="R21" t="n">
-        <v>1554451504.62</v>
+        <v>1554517053.92</v>
       </c>
       <c r="S21" t="n">
-        <v>1601889488.53</v>
+        <v>1601956580.29</v>
       </c>
       <c r="T21" t="n">
-        <v>1645813547.7</v>
+        <v>1645882067.68</v>
       </c>
       <c r="U21" t="n">
-        <v>1686483972.86</v>
+        <v>1686553815.26</v>
       </c>
       <c r="V21" t="n">
-        <v>1724141773.93</v>
+        <v>1724212840.79</v>
       </c>
     </row>
   </sheetData>
@@ -2351,7 +4431,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>387569.6</v>
+        <v>452529.18</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2421,7 +4501,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>349180</v>
+        <v>311220</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -2746,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>349180</v>
+        <v>311220</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -2774,64 +4854,64 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>16582.47</v>
+        <v>17719.26</v>
       </c>
       <c r="D8" t="n">
-        <v>16582.47</v>
+        <v>17719.26</v>
       </c>
       <c r="E8" t="n">
-        <v>16582.47</v>
+        <v>17719.26</v>
       </c>
       <c r="F8" t="n">
-        <v>16582.47</v>
+        <v>17719.26</v>
       </c>
       <c r="G8" t="n">
-        <v>16582.47</v>
+        <v>17719.26</v>
       </c>
       <c r="H8" t="n">
-        <v>16582.47</v>
+        <v>17719.26</v>
       </c>
       <c r="I8" t="n">
-        <v>16582.47</v>
+        <v>17719.26</v>
       </c>
       <c r="J8" t="n">
-        <v>16582.47</v>
+        <v>17719.26</v>
       </c>
       <c r="K8" t="n">
-        <v>16582.47</v>
+        <v>17719.26</v>
       </c>
       <c r="L8" t="n">
-        <v>16582.47</v>
+        <v>17719.26</v>
       </c>
       <c r="M8" t="n">
-        <v>16582.47</v>
+        <v>17719.26</v>
       </c>
       <c r="N8" t="n">
-        <v>16582.47</v>
+        <v>17719.26</v>
       </c>
       <c r="O8" t="n">
-        <v>16582.47</v>
+        <v>17719.26</v>
       </c>
       <c r="P8" t="n">
-        <v>16582.47</v>
+        <v>17719.26</v>
       </c>
       <c r="Q8" t="n">
-        <v>16582.47</v>
+        <v>17719.26</v>
       </c>
       <c r="R8" t="n">
-        <v>16582.47</v>
+        <v>17719.26</v>
       </c>
       <c r="S8" t="n">
-        <v>16582.47</v>
+        <v>17719.26</v>
       </c>
       <c r="T8" t="n">
-        <v>16582.47</v>
+        <v>17719.26</v>
       </c>
       <c r="U8" t="n">
-        <v>16582.47</v>
+        <v>17719.26</v>
       </c>
       <c r="V8" t="n">
-        <v>16582.47</v>
+        <v>17719.26</v>
       </c>
     </row>
     <row r="9">
@@ -2844,64 +4924,64 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>13430</v>
+        <v>11970</v>
       </c>
       <c r="D9" t="n">
-        <v>13430</v>
+        <v>11970</v>
       </c>
       <c r="E9" t="n">
-        <v>13430</v>
+        <v>11970</v>
       </c>
       <c r="F9" t="n">
-        <v>13430</v>
+        <v>11970</v>
       </c>
       <c r="G9" t="n">
-        <v>13430</v>
+        <v>11970</v>
       </c>
       <c r="H9" t="n">
-        <v>13430</v>
+        <v>11970</v>
       </c>
       <c r="I9" t="n">
-        <v>13430</v>
+        <v>11970</v>
       </c>
       <c r="J9" t="n">
-        <v>13430</v>
+        <v>11970</v>
       </c>
       <c r="K9" t="n">
-        <v>13430</v>
+        <v>11970</v>
       </c>
       <c r="L9" t="n">
-        <v>13430</v>
+        <v>11970</v>
       </c>
       <c r="M9" t="n">
-        <v>13430</v>
+        <v>11970</v>
       </c>
       <c r="N9" t="n">
-        <v>13430</v>
+        <v>11970</v>
       </c>
       <c r="O9" t="n">
-        <v>13430</v>
+        <v>11970</v>
       </c>
       <c r="P9" t="n">
-        <v>13430</v>
+        <v>11970</v>
       </c>
       <c r="Q9" t="n">
-        <v>13430</v>
+        <v>11970</v>
       </c>
       <c r="R9" t="n">
-        <v>13430</v>
+        <v>11970</v>
       </c>
       <c r="S9" t="n">
-        <v>13430</v>
+        <v>11970</v>
       </c>
       <c r="T9" t="n">
-        <v>13430</v>
+        <v>11970</v>
       </c>
       <c r="U9" t="n">
-        <v>13430</v>
+        <v>11970</v>
       </c>
       <c r="V9" t="n">
-        <v>13430</v>
+        <v>11970</v>
       </c>
     </row>
     <row r="10">
@@ -2914,64 +4994,64 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>215.3</v>
+        <v>191.9</v>
       </c>
       <c r="D10" t="n">
-        <v>215.3</v>
+        <v>191.9</v>
       </c>
       <c r="E10" t="n">
-        <v>215.3</v>
+        <v>191.9</v>
       </c>
       <c r="F10" t="n">
-        <v>215.3</v>
+        <v>191.9</v>
       </c>
       <c r="G10" t="n">
-        <v>215.3</v>
+        <v>191.9</v>
       </c>
       <c r="H10" t="n">
-        <v>215.3</v>
+        <v>191.9</v>
       </c>
       <c r="I10" t="n">
-        <v>215.3</v>
+        <v>191.9</v>
       </c>
       <c r="J10" t="n">
-        <v>215.3</v>
+        <v>191.9</v>
       </c>
       <c r="K10" t="n">
-        <v>215.3</v>
+        <v>191.9</v>
       </c>
       <c r="L10" t="n">
-        <v>215.3</v>
+        <v>191.9</v>
       </c>
       <c r="M10" t="n">
-        <v>215.3</v>
+        <v>191.9</v>
       </c>
       <c r="N10" t="n">
-        <v>215.3</v>
+        <v>191.9</v>
       </c>
       <c r="O10" t="n">
-        <v>215.3</v>
+        <v>191.9</v>
       </c>
       <c r="P10" t="n">
-        <v>215.3</v>
+        <v>191.9</v>
       </c>
       <c r="Q10" t="n">
-        <v>215.3</v>
+        <v>191.9</v>
       </c>
       <c r="R10" t="n">
-        <v>215.3</v>
+        <v>191.9</v>
       </c>
       <c r="S10" t="n">
-        <v>215.3</v>
+        <v>191.9</v>
       </c>
       <c r="T10" t="n">
-        <v>215.3</v>
+        <v>191.9</v>
       </c>
       <c r="U10" t="n">
-        <v>215.3</v>
+        <v>191.9</v>
       </c>
       <c r="V10" t="n">
-        <v>215.3</v>
+        <v>191.9</v>
       </c>
     </row>
     <row r="11">
@@ -2984,64 +5064,64 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>273135.49</v>
+        <v>278818.86</v>
       </c>
       <c r="D11" t="n">
-        <v>273135.49</v>
+        <v>278818.86</v>
       </c>
       <c r="E11" t="n">
-        <v>273135.49</v>
+        <v>278818.86</v>
       </c>
       <c r="F11" t="n">
-        <v>273135.49</v>
+        <v>278818.86</v>
       </c>
       <c r="G11" t="n">
-        <v>273135.49</v>
+        <v>278818.86</v>
       </c>
       <c r="H11" t="n">
-        <v>273135.49</v>
+        <v>278818.86</v>
       </c>
       <c r="I11" t="n">
-        <v>273135.49</v>
+        <v>278818.86</v>
       </c>
       <c r="J11" t="n">
-        <v>273135.49</v>
+        <v>278818.86</v>
       </c>
       <c r="K11" t="n">
-        <v>273135.49</v>
+        <v>278818.86</v>
       </c>
       <c r="L11" t="n">
-        <v>273135.49</v>
+        <v>278818.86</v>
       </c>
       <c r="M11" t="n">
-        <v>273135.49</v>
+        <v>278818.86</v>
       </c>
       <c r="N11" t="n">
-        <v>273135.49</v>
+        <v>278818.86</v>
       </c>
       <c r="O11" t="n">
-        <v>273135.49</v>
+        <v>278818.86</v>
       </c>
       <c r="P11" t="n">
-        <v>273135.49</v>
+        <v>278818.86</v>
       </c>
       <c r="Q11" t="n">
-        <v>273135.49</v>
+        <v>278818.86</v>
       </c>
       <c r="R11" t="n">
-        <v>273135.49</v>
+        <v>278818.86</v>
       </c>
       <c r="S11" t="n">
-        <v>273135.49</v>
+        <v>278818.86</v>
       </c>
       <c r="T11" t="n">
-        <v>273135.49</v>
+        <v>278818.86</v>
       </c>
       <c r="U11" t="n">
-        <v>273135.49</v>
+        <v>278818.86</v>
       </c>
       <c r="V11" t="n">
-        <v>273135.49</v>
+        <v>278818.86</v>
       </c>
     </row>
     <row r="12">
@@ -3264,64 +5344,64 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>12938.92</v>
+        <v>13309.33</v>
       </c>
       <c r="D15" t="n">
-        <v>12938.92</v>
+        <v>13309.33</v>
       </c>
       <c r="E15" t="n">
-        <v>12938.92</v>
+        <v>13309.33</v>
       </c>
       <c r="F15" t="n">
-        <v>12938.92</v>
+        <v>13309.33</v>
       </c>
       <c r="G15" t="n">
-        <v>12938.92</v>
+        <v>13309.33</v>
       </c>
       <c r="H15" t="n">
-        <v>12938.92</v>
+        <v>13309.33</v>
       </c>
       <c r="I15" t="n">
-        <v>12938.92</v>
+        <v>13309.33</v>
       </c>
       <c r="J15" t="n">
-        <v>12938.92</v>
+        <v>13309.33</v>
       </c>
       <c r="K15" t="n">
-        <v>12938.92</v>
+        <v>13309.33</v>
       </c>
       <c r="L15" t="n">
-        <v>12938.92</v>
+        <v>13309.33</v>
       </c>
       <c r="M15" t="n">
-        <v>12938.92</v>
+        <v>13309.33</v>
       </c>
       <c r="N15" t="n">
-        <v>12938.92</v>
+        <v>13309.33</v>
       </c>
       <c r="O15" t="n">
-        <v>12938.92</v>
+        <v>13309.33</v>
       </c>
       <c r="P15" t="n">
-        <v>12938.92</v>
+        <v>13309.33</v>
       </c>
       <c r="Q15" t="n">
-        <v>12938.92</v>
+        <v>13309.33</v>
       </c>
       <c r="R15" t="n">
-        <v>12938.92</v>
+        <v>13309.33</v>
       </c>
       <c r="S15" t="n">
-        <v>12938.92</v>
+        <v>13309.33</v>
       </c>
       <c r="T15" t="n">
-        <v>12938.92</v>
+        <v>13309.33</v>
       </c>
       <c r="U15" t="n">
-        <v>12938.92</v>
+        <v>13309.33</v>
       </c>
       <c r="V15" t="n">
-        <v>12938.92</v>
+        <v>13309.33</v>
       </c>
     </row>
     <row r="16">
@@ -3821,67 +5901,67 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>736749.6</v>
+        <v>763749.1800000001</v>
       </c>
       <c r="C23" t="n">
-        <v>175521396.93</v>
+        <v>175527104.1</v>
       </c>
       <c r="D23" t="n">
-        <v>175521396.93</v>
+        <v>175527104.1</v>
       </c>
       <c r="E23" t="n">
-        <v>175521396.93</v>
+        <v>175527104.1</v>
       </c>
       <c r="F23" t="n">
-        <v>175521396.93</v>
+        <v>175527104.1</v>
       </c>
       <c r="G23" t="n">
-        <v>175521396.93</v>
+        <v>175527104.1</v>
       </c>
       <c r="H23" t="n">
-        <v>175521396.93</v>
+        <v>175527104.1</v>
       </c>
       <c r="I23" t="n">
-        <v>175521396.93</v>
+        <v>175527104.1</v>
       </c>
       <c r="J23" t="n">
-        <v>175521396.93</v>
+        <v>175527104.1</v>
       </c>
       <c r="K23" t="n">
-        <v>175521396.93</v>
+        <v>175527104.1</v>
       </c>
       <c r="L23" t="n">
-        <v>175521396.93</v>
+        <v>175527104.1</v>
       </c>
       <c r="M23" t="n">
-        <v>175521396.93</v>
+        <v>175527104.1</v>
       </c>
       <c r="N23" t="n">
-        <v>175521396.93</v>
+        <v>175527104.1</v>
       </c>
       <c r="O23" t="n">
-        <v>175521396.93</v>
+        <v>175527104.1</v>
       </c>
       <c r="P23" t="n">
-        <v>175521396.93</v>
+        <v>175527104.1</v>
       </c>
       <c r="Q23" t="n">
-        <v>175870576.93</v>
+        <v>175838324.1</v>
       </c>
       <c r="R23" t="n">
-        <v>175521396.93</v>
+        <v>175527104.1</v>
       </c>
       <c r="S23" t="n">
-        <v>175521396.93</v>
+        <v>175527104.1</v>
       </c>
       <c r="T23" t="n">
-        <v>175521396.93</v>
+        <v>175527104.1</v>
       </c>
       <c r="U23" t="n">
-        <v>175521396.93</v>
+        <v>175527104.1</v>
       </c>
       <c r="V23" t="n">
-        <v>175521396.93</v>
+        <v>175527104.1</v>
       </c>
     </row>
     <row r="24">
@@ -3891,67 +5971,67 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>736749.6</v>
+        <v>763749.1800000001</v>
       </c>
       <c r="C24" t="n">
-        <v>162519811.97</v>
+        <v>162525096.39</v>
       </c>
       <c r="D24" t="n">
-        <v>150481307.38</v>
+        <v>150486200.36</v>
       </c>
       <c r="E24" t="n">
-        <v>139334543.87</v>
+        <v>139339074.41</v>
       </c>
       <c r="F24" t="n">
-        <v>129013466.55</v>
+        <v>129017661.49</v>
       </c>
       <c r="G24" t="n">
-        <v>119456913.47</v>
+        <v>119460797.68</v>
       </c>
       <c r="H24" t="n">
-        <v>110608253.21</v>
+        <v>110611849.7</v>
       </c>
       <c r="I24" t="n">
-        <v>102415049.27</v>
+        <v>102418379.35</v>
       </c>
       <c r="J24" t="n">
-        <v>94828749.33</v>
+        <v>94831832.73</v>
       </c>
       <c r="K24" t="n">
-        <v>87804397.52</v>
+        <v>87807252.53</v>
       </c>
       <c r="L24" t="n">
-        <v>81300368.08</v>
+        <v>81303011.59999999</v>
       </c>
       <c r="M24" t="n">
-        <v>75278118.59</v>
+        <v>75280566.3</v>
       </c>
       <c r="N24" t="n">
-        <v>69701961.66</v>
+        <v>69704228.05</v>
       </c>
       <c r="O24" t="n">
-        <v>64538853.39</v>
+        <v>64540951.9</v>
       </c>
       <c r="P24" t="n">
-        <v>59758197.58</v>
+        <v>59760140.65</v>
       </c>
       <c r="Q24" t="n">
-        <v>55441740.53</v>
+        <v>55431573.09</v>
       </c>
       <c r="R24" t="n">
-        <v>51233022.62</v>
+        <v>51234688.49</v>
       </c>
       <c r="S24" t="n">
-        <v>47437983.9</v>
+        <v>47439526.38</v>
       </c>
       <c r="T24" t="n">
-        <v>43924059.17</v>
+        <v>43925487.39</v>
       </c>
       <c r="U24" t="n">
-        <v>40670425.16</v>
+        <v>40671747.58</v>
       </c>
       <c r="V24" t="n">
-        <v>37657801.07</v>
+        <v>37659025.54</v>
       </c>
     </row>
     <row r="25">
@@ -3961,67 +6041,67 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>736749.6</v>
+        <v>763749.1800000001</v>
       </c>
       <c r="C25" t="n">
-        <v>176258146.53</v>
+        <v>176290853.28</v>
       </c>
       <c r="D25" t="n">
-        <v>351779543.46</v>
+        <v>351817957.39</v>
       </c>
       <c r="E25" t="n">
-        <v>527300940.39</v>
+        <v>527345061.49</v>
       </c>
       <c r="F25" t="n">
-        <v>702822337.33</v>
+        <v>702872165.59</v>
       </c>
       <c r="G25" t="n">
-        <v>878343734.26</v>
+        <v>878399269.7</v>
       </c>
       <c r="H25" t="n">
-        <v>1053865131.19</v>
+        <v>1053926373.8</v>
       </c>
       <c r="I25" t="n">
-        <v>1229386528.12</v>
+        <v>1229453477.9</v>
       </c>
       <c r="J25" t="n">
-        <v>1404907925.05</v>
+        <v>1404980582.01</v>
       </c>
       <c r="K25" t="n">
-        <v>1580429321.98</v>
+        <v>1580507686.11</v>
       </c>
       <c r="L25" t="n">
-        <v>1755950718.91</v>
+        <v>1756034790.21</v>
       </c>
       <c r="M25" t="n">
-        <v>1931472115.84</v>
+        <v>1931561894.32</v>
       </c>
       <c r="N25" t="n">
-        <v>2106993512.78</v>
+        <v>2107088998.42</v>
       </c>
       <c r="O25" t="n">
-        <v>2282514909.71</v>
+        <v>2282616102.52</v>
       </c>
       <c r="P25" t="n">
-        <v>2458036306.64</v>
+        <v>2458143206.63</v>
       </c>
       <c r="Q25" t="n">
-        <v>2633906883.57</v>
+        <v>2633981530.73</v>
       </c>
       <c r="R25" t="n">
-        <v>2809428280.5</v>
+        <v>2809508634.83</v>
       </c>
       <c r="S25" t="n">
-        <v>2984949677.43</v>
+        <v>2985035738.94</v>
       </c>
       <c r="T25" t="n">
-        <v>3160471074.36</v>
+        <v>3160562843.04</v>
       </c>
       <c r="U25" t="n">
-        <v>3335992471.3</v>
+        <v>3336089947.14</v>
       </c>
       <c r="V25" t="n">
-        <v>3511513868.23</v>
+        <v>3511617051.25</v>
       </c>
     </row>
     <row r="26">
@@ -4031,67 +6111,67 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>736749.6</v>
+        <v>763749.1800000001</v>
       </c>
       <c r="C26" t="n">
-        <v>163256561.57</v>
+        <v>163288845.57</v>
       </c>
       <c r="D26" t="n">
-        <v>313737868.96</v>
+        <v>313775045.94</v>
       </c>
       <c r="E26" t="n">
-        <v>453072412.83</v>
+        <v>453114120.35</v>
       </c>
       <c r="F26" t="n">
-        <v>582085879.38</v>
+        <v>582131781.84</v>
       </c>
       <c r="G26" t="n">
-        <v>701542792.85</v>
+        <v>701592579.51</v>
       </c>
       <c r="H26" t="n">
-        <v>812151046.0599999</v>
+        <v>812204429.21</v>
       </c>
       <c r="I26" t="n">
-        <v>914566095.34</v>
+        <v>914622808.5700001</v>
       </c>
       <c r="J26" t="n">
-        <v>1009394844.66</v>
+        <v>1009454641.3</v>
       </c>
       <c r="K26" t="n">
-        <v>1097199242.19</v>
+        <v>1097261893.83</v>
       </c>
       <c r="L26" t="n">
-        <v>1178499610.27</v>
+        <v>1178564905.43</v>
       </c>
       <c r="M26" t="n">
-        <v>1253777728.86</v>
+        <v>1253845471.73</v>
       </c>
       <c r="N26" t="n">
-        <v>1323479690.51</v>
+        <v>1323549699.79</v>
       </c>
       <c r="O26" t="n">
-        <v>1388018543.9</v>
+        <v>1388090651.69</v>
       </c>
       <c r="P26" t="n">
-        <v>1447776741.48</v>
+        <v>1447850792.34</v>
       </c>
       <c r="Q26" t="n">
-        <v>1503218482.01</v>
+        <v>1503282365.43</v>
       </c>
       <c r="R26" t="n">
-        <v>1554451504.62</v>
+        <v>1554517053.92</v>
       </c>
       <c r="S26" t="n">
-        <v>1601889488.53</v>
+        <v>1601956580.29</v>
       </c>
       <c r="T26" t="n">
-        <v>1645813547.7</v>
+        <v>1645882067.68</v>
       </c>
       <c r="U26" t="n">
-        <v>1686483972.86</v>
+        <v>1686553815.26</v>
       </c>
       <c r="V26" t="n">
-        <v>1724141773.93</v>
+        <v>1724212840.79</v>
       </c>
     </row>
   </sheetData>
@@ -4185,67 +6265,67 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>736749.6</v>
+        <v>763749.1800000001</v>
       </c>
       <c r="C2" t="n">
-        <v>175521396.93</v>
+        <v>175527104.1</v>
       </c>
       <c r="D2" t="n">
-        <v>175521396.93</v>
+        <v>175527104.1</v>
       </c>
       <c r="E2" t="n">
-        <v>175521396.93</v>
+        <v>175527104.1</v>
       </c>
       <c r="F2" t="n">
-        <v>175521396.93</v>
+        <v>175527104.1</v>
       </c>
       <c r="G2" t="n">
-        <v>175521396.93</v>
+        <v>175527104.1</v>
       </c>
       <c r="H2" t="n">
-        <v>175521396.93</v>
+        <v>175527104.1</v>
       </c>
       <c r="I2" t="n">
-        <v>175521396.93</v>
+        <v>175527104.1</v>
       </c>
       <c r="J2" t="n">
-        <v>175521396.93</v>
+        <v>175527104.1</v>
       </c>
       <c r="K2" t="n">
-        <v>175521396.93</v>
+        <v>175527104.1</v>
       </c>
       <c r="L2" t="n">
-        <v>175521396.93</v>
+        <v>175527104.1</v>
       </c>
       <c r="M2" t="n">
-        <v>175521396.93</v>
+        <v>175527104.1</v>
       </c>
       <c r="N2" t="n">
-        <v>175521396.93</v>
+        <v>175527104.1</v>
       </c>
       <c r="O2" t="n">
-        <v>175521396.93</v>
+        <v>175527104.1</v>
       </c>
       <c r="P2" t="n">
-        <v>175521396.93</v>
+        <v>175527104.1</v>
       </c>
       <c r="Q2" t="n">
-        <v>175870576.93</v>
+        <v>175838324.1</v>
       </c>
       <c r="R2" t="n">
-        <v>175521396.93</v>
+        <v>175527104.1</v>
       </c>
       <c r="S2" t="n">
-        <v>175521396.93</v>
+        <v>175527104.1</v>
       </c>
       <c r="T2" t="n">
-        <v>175521396.93</v>
+        <v>175527104.1</v>
       </c>
       <c r="U2" t="n">
-        <v>175521396.93</v>
+        <v>175527104.1</v>
       </c>
       <c r="V2" t="n">
-        <v>175521396.93</v>
+        <v>175527104.1</v>
       </c>
     </row>
     <row r="3">
@@ -4325,67 +6405,67 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>736749.6</v>
+        <v>763749.1800000001</v>
       </c>
       <c r="C4" t="n">
-        <v>175521396.93</v>
+        <v>175527104.1</v>
       </c>
       <c r="D4" t="n">
-        <v>175521396.93</v>
+        <v>175527104.1</v>
       </c>
       <c r="E4" t="n">
-        <v>175521396.93</v>
+        <v>175527104.1</v>
       </c>
       <c r="F4" t="n">
-        <v>175521396.93</v>
+        <v>175527104.1</v>
       </c>
       <c r="G4" t="n">
-        <v>175521396.93</v>
+        <v>175527104.1</v>
       </c>
       <c r="H4" t="n">
-        <v>175521396.93</v>
+        <v>175527104.1</v>
       </c>
       <c r="I4" t="n">
-        <v>175521396.93</v>
+        <v>175527104.1</v>
       </c>
       <c r="J4" t="n">
-        <v>175521396.93</v>
+        <v>175527104.1</v>
       </c>
       <c r="K4" t="n">
-        <v>175521396.93</v>
+        <v>175527104.1</v>
       </c>
       <c r="L4" t="n">
-        <v>175521396.93</v>
+        <v>175527104.1</v>
       </c>
       <c r="M4" t="n">
-        <v>175521396.93</v>
+        <v>175527104.1</v>
       </c>
       <c r="N4" t="n">
-        <v>175521396.93</v>
+        <v>175527104.1</v>
       </c>
       <c r="O4" t="n">
-        <v>175521396.93</v>
+        <v>175527104.1</v>
       </c>
       <c r="P4" t="n">
-        <v>175521396.93</v>
+        <v>175527104.1</v>
       </c>
       <c r="Q4" t="n">
-        <v>175870576.93</v>
+        <v>175838324.1</v>
       </c>
       <c r="R4" t="n">
-        <v>175521396.93</v>
+        <v>175527104.1</v>
       </c>
       <c r="S4" t="n">
-        <v>175521396.93</v>
+        <v>175527104.1</v>
       </c>
       <c r="T4" t="n">
-        <v>175521396.93</v>
+        <v>175527104.1</v>
       </c>
       <c r="U4" t="n">
-        <v>175521396.93</v>
+        <v>175527104.1</v>
       </c>
       <c r="V4" t="n">
-        <v>175521396.93</v>
+        <v>175527104.1</v>
       </c>
     </row>
     <row r="5">
@@ -4395,67 +6475,67 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>736749.6</v>
+        <v>763749.1800000001</v>
       </c>
       <c r="C5" t="n">
-        <v>162519811.97</v>
+        <v>162525096.39</v>
       </c>
       <c r="D5" t="n">
-        <v>150481307.38</v>
+        <v>150486200.36</v>
       </c>
       <c r="E5" t="n">
-        <v>139334543.87</v>
+        <v>139339074.41</v>
       </c>
       <c r="F5" t="n">
-        <v>129013466.55</v>
+        <v>129017661.49</v>
       </c>
       <c r="G5" t="n">
-        <v>119456913.47</v>
+        <v>119460797.68</v>
       </c>
       <c r="H5" t="n">
-        <v>110608253.21</v>
+        <v>110611849.7</v>
       </c>
       <c r="I5" t="n">
-        <v>102415049.27</v>
+        <v>102418379.35</v>
       </c>
       <c r="J5" t="n">
-        <v>94828749.33</v>
+        <v>94831832.73</v>
       </c>
       <c r="K5" t="n">
-        <v>87804397.52</v>
+        <v>87807252.53</v>
       </c>
       <c r="L5" t="n">
-        <v>81300368.08</v>
+        <v>81303011.59999999</v>
       </c>
       <c r="M5" t="n">
-        <v>75278118.59</v>
+        <v>75280566.3</v>
       </c>
       <c r="N5" t="n">
-        <v>69701961.66</v>
+        <v>69704228.05</v>
       </c>
       <c r="O5" t="n">
-        <v>64538853.39</v>
+        <v>64540951.9</v>
       </c>
       <c r="P5" t="n">
-        <v>59758197.58</v>
+        <v>59760140.65</v>
       </c>
       <c r="Q5" t="n">
-        <v>55441740.53</v>
+        <v>55431573.09</v>
       </c>
       <c r="R5" t="n">
-        <v>51233022.62</v>
+        <v>51234688.49</v>
       </c>
       <c r="S5" t="n">
-        <v>47437983.9</v>
+        <v>47439526.38</v>
       </c>
       <c r="T5" t="n">
-        <v>43924059.17</v>
+        <v>43925487.39</v>
       </c>
       <c r="U5" t="n">
-        <v>40670425.16</v>
+        <v>40671747.58</v>
       </c>
       <c r="V5" t="n">
-        <v>37657801.07</v>
+        <v>37659025.54</v>
       </c>
     </row>
     <row r="6">
@@ -4465,67 +6545,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>736749.6</v>
+        <v>763749.1800000001</v>
       </c>
       <c r="C6" t="n">
-        <v>176258146.53</v>
+        <v>176290853.28</v>
       </c>
       <c r="D6" t="n">
-        <v>351779543.46</v>
+        <v>351817957.39</v>
       </c>
       <c r="E6" t="n">
-        <v>527300940.39</v>
+        <v>527345061.49</v>
       </c>
       <c r="F6" t="n">
-        <v>702822337.33</v>
+        <v>702872165.59</v>
       </c>
       <c r="G6" t="n">
-        <v>878343734.26</v>
+        <v>878399269.7</v>
       </c>
       <c r="H6" t="n">
-        <v>1053865131.19</v>
+        <v>1053926373.8</v>
       </c>
       <c r="I6" t="n">
-        <v>1229386528.12</v>
+        <v>1229453477.9</v>
       </c>
       <c r="J6" t="n">
-        <v>1404907925.05</v>
+        <v>1404980582.01</v>
       </c>
       <c r="K6" t="n">
-        <v>1580429321.98</v>
+        <v>1580507686.11</v>
       </c>
       <c r="L6" t="n">
-        <v>1755950718.91</v>
+        <v>1756034790.21</v>
       </c>
       <c r="M6" t="n">
-        <v>1931472115.84</v>
+        <v>1931561894.32</v>
       </c>
       <c r="N6" t="n">
-        <v>2106993512.78</v>
+        <v>2107088998.42</v>
       </c>
       <c r="O6" t="n">
-        <v>2282514909.71</v>
+        <v>2282616102.52</v>
       </c>
       <c r="P6" t="n">
-        <v>2458036306.64</v>
+        <v>2458143206.63</v>
       </c>
       <c r="Q6" t="n">
-        <v>2633906883.57</v>
+        <v>2633981530.73</v>
       </c>
       <c r="R6" t="n">
-        <v>2809428280.5</v>
+        <v>2809508634.83</v>
       </c>
       <c r="S6" t="n">
-        <v>2984949677.43</v>
+        <v>2985035738.94</v>
       </c>
       <c r="T6" t="n">
-        <v>3160471074.36</v>
+        <v>3160562843.04</v>
       </c>
       <c r="U6" t="n">
-        <v>3335992471.3</v>
+        <v>3336089947.14</v>
       </c>
       <c r="V6" t="n">
-        <v>3511513868.23</v>
+        <v>3511617051.25</v>
       </c>
     </row>
     <row r="7">
@@ -4535,67 +6615,67 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>736749.6</v>
+        <v>763749.1800000001</v>
       </c>
       <c r="C7" t="n">
-        <v>163256561.57</v>
+        <v>163288845.57</v>
       </c>
       <c r="D7" t="n">
-        <v>313737868.96</v>
+        <v>313775045.94</v>
       </c>
       <c r="E7" t="n">
-        <v>453072412.83</v>
+        <v>453114120.35</v>
       </c>
       <c r="F7" t="n">
-        <v>582085879.38</v>
+        <v>582131781.84</v>
       </c>
       <c r="G7" t="n">
-        <v>701542792.85</v>
+        <v>701592579.51</v>
       </c>
       <c r="H7" t="n">
-        <v>812151046.0599999</v>
+        <v>812204429.21</v>
       </c>
       <c r="I7" t="n">
-        <v>914566095.34</v>
+        <v>914622808.5700001</v>
       </c>
       <c r="J7" t="n">
-        <v>1009394844.66</v>
+        <v>1009454641.3</v>
       </c>
       <c r="K7" t="n">
-        <v>1097199242.19</v>
+        <v>1097261893.83</v>
       </c>
       <c r="L7" t="n">
-        <v>1178499610.27</v>
+        <v>1178564905.43</v>
       </c>
       <c r="M7" t="n">
-        <v>1253777728.86</v>
+        <v>1253845471.73</v>
       </c>
       <c r="N7" t="n">
-        <v>1323479690.51</v>
+        <v>1323549699.79</v>
       </c>
       <c r="O7" t="n">
-        <v>1388018543.9</v>
+        <v>1388090651.69</v>
       </c>
       <c r="P7" t="n">
-        <v>1447776741.48</v>
+        <v>1447850792.34</v>
       </c>
       <c r="Q7" t="n">
-        <v>1503218482.01</v>
+        <v>1503282365.43</v>
       </c>
       <c r="R7" t="n">
-        <v>1554451504.62</v>
+        <v>1554517053.92</v>
       </c>
       <c r="S7" t="n">
-        <v>1601889488.53</v>
+        <v>1601956580.29</v>
       </c>
       <c r="T7" t="n">
-        <v>1645813547.7</v>
+        <v>1645882067.68</v>
       </c>
       <c r="U7" t="n">
-        <v>1686483972.86</v>
+        <v>1686553815.26</v>
       </c>
       <c r="V7" t="n">
-        <v>1724141773.93</v>
+        <v>1724212840.79</v>
       </c>
     </row>
   </sheetData>
@@ -4639,7 +6719,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3511513.87</v>
+        <v>3511617.05</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -4654,7 +6734,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1724141.77</v>
+        <v>1724212.84</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -4669,7 +6749,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>357655.44</v>
+        <v>357665.95</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -4684,7 +6764,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>175607.65</v>
+        <v>175614.89</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -4699,7 +6779,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30.01</v>
+        <v>29.69</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -4714,7 +6794,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>291.17</v>
+        <v>297.22</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -4729,7 +6809,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>175521.4</v>
+        <v>175527.1</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -4744,7 +6824,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3211315.58</v>
+        <v>3363574.74</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -4789,7 +6869,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>37.11</v>
+        <v>39.05</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -4804,7 +6884,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>41.87</v>
+        <v>43.69</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -4819,7 +6899,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-23831.12</v>
+        <v>-22989.33</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -4834,7 +6914,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-11701</v>
+        <v>-11287.82</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -4883,7 +6963,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>111.37</v>
+        <v>106.34</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -4898,7 +6978,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>54.68</v>
+        <v>52.21</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
